--- a/data/trans_bre/P1414-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1414-Edad-trans_bre.xlsx
@@ -659,10 +659,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>1.456221206749873</v>
+        <v>1.213073391875306</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.420054165128938</v>
+        <v>3.388900566679612</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
@@ -708,16 +708,18 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2640866186667075</v>
+        <v>0.1677344253077618</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.8368641264722051</v>
+        <v>-0.8447696230793947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.8508078184716267</v>
+        <v>-0.8240986814395221</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
-      <c r="G8" s="6" t="inlineStr"/>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
@@ -728,13 +730,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.107008510916084</v>
+        <v>1.840954787034697</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8772126740162636</v>
+        <v>0.8666816806743619</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7144045598603855</v>
+        <v>0.7209380467874892</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
@@ -784,13 +786,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.244585078283372</v>
+        <v>1.249816230496363</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5340281365438256</v>
+        <v>0.5535258548610813</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.14431772297296</v>
+        <v>1.145719167699312</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
@@ -804,13 +806,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.410837158596184</v>
+        <v>3.592619545588939</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.305516812415467</v>
+        <v>2.299704297898433</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.022088977546036</v>
+        <v>2.961887381932447</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
@@ -834,7 +836,7 @@
         <v>5.084355594119897</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3.2059229478123</v>
+        <v>3.205922947812302</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>11.31644852487472</v>
@@ -843,7 +845,7 @@
         <v>7.987209608069836</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>4.123299054400168</v>
+        <v>4.12329905440017</v>
       </c>
     </row>
     <row r="14">
@@ -854,22 +856,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.211146118332027</v>
+        <v>2.271876265860493</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.288680216460295</v>
+        <v>3.347743613809149</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.875812974040431</v>
+        <v>1.799650195413698</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2.260147139602086</v>
+        <v>1.670440396172917</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2.422619934375653</v>
+        <v>2.496439471918374</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7283277327948654</v>
+        <v>0.684993925593778</v>
       </c>
     </row>
     <row r="15">
@@ -880,20 +882,20 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.781753850735883</v>
+        <v>5.829198462360123</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.276449954737754</v>
+        <v>7.319118921587366</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.60766933643946</v>
+        <v>4.435019588780213</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>35.32301493810137</v>
+        <v>38.42057987990236</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20.87721841626187</v>
+        <v>15.12944577667711</v>
       </c>
     </row>
     <row r="16">
@@ -914,7 +916,7 @@
         <v>7.906656288027289</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7.680550780588553</v>
+        <v>7.680550780588552</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>11.74617316766434</v>
@@ -934,22 +936,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.709883935648131</v>
+        <v>3.622001324483675</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.251715423433772</v>
+        <v>5.578171860669803</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.939862638903836</v>
+        <v>5.820909266688831</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>2.178271927019919</v>
+        <v>1.59922756559098</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>2.551182295054882</v>
+        <v>2.267598200890364</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>3.677898630496629</v>
+        <v>3.53268744044489</v>
       </c>
     </row>
     <row r="18">
@@ -960,20 +962,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.5799290578148</v>
+        <v>8.422465071326197</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.80559084481491</v>
+        <v>11.07865434826066</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.605778736711772</v>
+        <v>9.582206204368875</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="n">
-        <v>37.14898772396396</v>
+        <v>34.72425703731558</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29.5815819883253</v>
+        <v>30.95443089755092</v>
       </c>
     </row>
     <row r="19">
@@ -1014,22 +1016,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6032711340720598</v>
+        <v>0.6261973048467353</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.242334489055484</v>
+        <v>2.319356799683856</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.22726471184026</v>
+        <v>6.127034993205704</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2019179552837943</v>
+        <v>-0.2002130304744803</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4132233066613973</v>
+        <v>0.4013192652801963</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>3.688837400781548</v>
+        <v>3.793535952522704</v>
       </c>
     </row>
     <row r="21">
@@ -1040,18 +1042,18 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.543791160665032</v>
+        <v>4.508421834442261</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.698592315129312</v>
+        <v>7.471101868441457</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10.39047895481065</v>
+        <v>10.43059184879963</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>36.44232391068078</v>
+        <v>36.22314686830268</v>
       </c>
     </row>
     <row r="22">
@@ -1072,7 +1074,7 @@
         <v>2.855086869811243</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.222315782464653</v>
+        <v>4.222315782464652</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>4.466163215824334</v>
@@ -1094,13 +1096,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3073260358747042</v>
+        <v>0.1743228184357175</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.27853752172398</v>
+        <v>1.296048173780842</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.981876224221725</v>
+        <v>2.846644307775688</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="inlineStr"/>
@@ -1114,13 +1116,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.81583287373761</v>
+        <v>3.783177007920059</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.116897024686341</v>
+        <v>5.101463019247624</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.858090417781386</v>
+        <v>5.955122769184159</v>
       </c>
       <c r="F24" s="6" t="inlineStr"/>
       <c r="G24" s="6" t="inlineStr"/>
@@ -1144,7 +1146,7 @@
         <v>3.114612478064324</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3.750390166777931</v>
+        <v>3.750390166777932</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>11.11631815191963</v>
@@ -1164,22 +1166,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.850336103148536</v>
+        <v>1.839175168900386</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.447101217413398</v>
+        <v>2.460651338248452</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.198793557989743</v>
+        <v>3.247492281455887</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4.87534574971626</v>
+        <v>4.911671116281769</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3.759079764307096</v>
+        <v>4.137698311720307</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>4.894706588236397</v>
+        <v>5.202651470471274</v>
       </c>
     </row>
     <row r="27">
@@ -1190,22 +1192,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.967887553548659</v>
+        <v>3.01324599467263</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.782090330666556</v>
+        <v>3.816024002496906</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.335259873724833</v>
+        <v>4.344836256308467</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>26.46310813302309</v>
+        <v>31.21959052557189</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15.72159171690586</v>
+        <v>15.12487806988341</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>17.82124015407297</v>
+        <v>16.72057274049902</v>
       </c>
     </row>
     <row r="28">
